--- a/Nyers adatok/Helyszin.xlsx
+++ b/Nyers adatok/Helyszin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qInsane\Desktop\SQL-Letrehozas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Everything\Suli\Adatb_2\Push\Adatbre_2_allaskereso\Nyers adatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C576DDE-F18F-4CE4-B069-03A3E5FFB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73319D20-3D54-4C71-9795-92823D64DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D295779-4C41-411D-8310-4DE8D0B68060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5D295779-4C41-411D-8310-4DE8D0B68060}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Hódmezővásárhely</t>
-  </si>
-  <si>
-    <t>Igen</t>
-  </si>
-  <si>
-    <t>Nem</t>
   </si>
 </sst>
 </file>
@@ -486,7 +480,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,8 +514,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,8 +529,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,8 +544,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,8 +559,9 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,8 +574,9 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,8 +589,9 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,8 +604,9 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,8 +619,9 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,8 +634,9 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,8 +649,9 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,8 +664,9 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,8 +679,9 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,8 +694,9 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,8 +709,9 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,8 +724,9 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,8 +739,9 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,8 +754,9 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,8 +769,9 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,8 +784,9 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>30</v>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,8 +799,9 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,8 +814,9 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,8 +829,9 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>31</v>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,8 +844,9 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,8 +859,9 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>31</v>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,8 +874,9 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
-        <v>30</v>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
